--- a/Files/AuxElectricalTesting.xlsx
+++ b/Files/AuxElectricalTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\achates.lan\data\redirectedfolders\gonzales\Documents\GitHub\Tevo3DPrinter\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BA46F-A053-42C5-AD7C-8A9C28315F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA15D9E-63EB-4201-AB65-2CB46280447F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="18540" windowHeight="11460" activeTab="1" xr2:uid="{9FEB4722-2C17-4CE7-BA8F-CD9F8B5749CF}"/>
+    <workbookView xWindow="40965" yWindow="1560" windowWidth="16215" windowHeight="13740" activeTab="1" xr2:uid="{9FEB4722-2C17-4CE7-BA8F-CD9F8B5749CF}"/>
   </bookViews>
   <sheets>
     <sheet name="LedLight" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Amperage (mA)</t>
   </si>
@@ -852,7 +852,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>LED Light Testing</a:t>
+              <a:t>Filament Fan Testing</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2996,7 +2996,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
